--- a/data/trans_camb/P32-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P32-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.087805605489322</v>
+        <v>3.127915900363049</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4343247060837265</v>
+        <v>0.2368584512486269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.4949675611128118</v>
+        <v>-0.5226710222528406</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5327776499014764</v>
+        <v>0.5331549378555246</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9236966917016034</v>
+        <v>0.9725968425389355</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4075257565750103</v>
+        <v>0.4128836199747318</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.711323822450352</v>
+        <v>2.537635787332251</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8597641651074428</v>
+        <v>0.8838210342427282</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.003575901666025312</v>
+        <v>-0.08376362737508322</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.157023392314851</v>
+        <v>8.15636961929334</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.527802454974608</v>
+        <v>4.216728086247892</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.811565191667866</v>
+        <v>3.033044660406892</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.549976390632438</v>
+        <v>4.926260160073655</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.017293729743576</v>
+        <v>5.861957918424901</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.732406769555773</v>
+        <v>3.777006214802686</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.612174907614916</v>
+        <v>6.542197629856231</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.869184123902538</v>
+        <v>4.025737120721294</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.420472525310065</v>
+        <v>2.495020955994261</v>
       </c>
     </row>
     <row r="7">
@@ -786,25 +786,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>1.054952492819245</v>
+        <v>1.198276908630866</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1614847319702244</v>
+        <v>-0.05469524201810073</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5254985155118725</v>
+        <v>-0.5261771905513258</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>1.181901506055655</v>
+        <v>1.083926256080076</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1901251962367109</v>
+        <v>0.4005918012194063</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2718076116712314</v>
+        <v>-0.3229169272024078</v>
       </c>
     </row>
     <row r="9">
@@ -815,25 +815,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>18.4513151491531</v>
+        <v>25.01181599361677</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>10.54130534186278</v>
+        <v>12.15412705408221</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>6.884929100150528</v>
+        <v>9.189274239794537</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>24.08634572689034</v>
+        <v>21.37493352110474</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>14.77160509380204</v>
+        <v>17.28160587255524</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>8.972862527499343</v>
+        <v>8.453439901338522</v>
       </c>
     </row>
     <row r="10">
@@ -854,7 +854,7 @@
         <v>2.734579666941509</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.004220500980649</v>
+        <v>3.004220500980648</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.9148200995631928</v>
@@ -883,31 +883,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1577653778680979</v>
+        <v>-0.3026672630117619</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3780185253974057</v>
+        <v>0.3678820402803183</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5061044576332423</v>
+        <v>0.3861879555241414</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8607136370717484</v>
+        <v>-0.9019538802453446</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.2172307815071259</v>
+        <v>-0.3893950234274202</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.766810029771104</v>
+        <v>1.730555348788588</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.04979093587547783</v>
+        <v>-0.01024422512791503</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4618623064352101</v>
+        <v>0.5384574746038966</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.473780645577452</v>
+        <v>1.393365364404806</v>
       </c>
     </row>
     <row r="12">
@@ -918,31 +918,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.551673928902283</v>
+        <v>4.55521479143762</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.329319945981275</v>
+        <v>5.455941071947926</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.251552226567345</v>
+        <v>6.058501945938731</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.323242375020156</v>
+        <v>3.293860173004534</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.591037720996297</v>
+        <v>3.634211353015767</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.958372475938011</v>
+        <v>8.454437640286363</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.396922571978181</v>
+        <v>3.491968354476079</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.061620498900798</v>
+        <v>4.1547141015847</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.734149813028208</v>
+        <v>5.994004174581949</v>
       </c>
     </row>
     <row r="13">
@@ -988,29 +988,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.05747145753120376</v>
+        <v>-0.1698021678594979</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.0467060624465801</v>
+        <v>0.06249861583230903</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.0384458955910273</v>
+        <v>0.05266476520188137</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
-        <v>-0.5282188376167738</v>
+        <v>-0.640910894756858</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1719292075884129</v>
+        <v>0.4269173085768715</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03301848423882432</v>
+        <v>-0.04202332796829746</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1059346425406333</v>
+        <v>0.15239097085205</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3881934556717359</v>
+        <v>0.459184466804464</v>
       </c>
     </row>
     <row r="15">
@@ -1021,25 +1021,25 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.467253926294495</v>
+        <v>2.247452226613318</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.52553119676452</v>
+        <v>2.72390962329728</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.032980726577177</v>
+        <v>2.928756029441463</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>2.196283378897788</v>
+        <v>2.171249060907662</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.651728639467972</v>
+        <v>2.733161644102994</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.5360788367626</v>
+        <v>3.885631040905132</v>
       </c>
     </row>
     <row r="16">
@@ -1060,7 +1060,7 @@
         <v>0.4464221896678625</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.306947957631726</v>
+        <v>3.306947957631725</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.4432157534829395</v>
@@ -1089,31 +1089,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2490609458413242</v>
+        <v>0.4102731727407465</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.745043456832474</v>
+        <v>-2.796197280035532</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4443500345128439</v>
+        <v>-0.2229851679401801</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.708272873963487</v>
+        <v>-2.864590954319504</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.135555957378389</v>
+        <v>-2.25324056228495</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3360922958919293</v>
+        <v>0.2758477504244184</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1053037272856751</v>
+        <v>-0.1489631539014934</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.874696129825022</v>
+        <v>-1.785402985589296</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3178650840840201</v>
+        <v>0.245136390606086</v>
       </c>
     </row>
     <row r="18">
@@ -1124,31 +1124,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.553866634359027</v>
+        <v>7.227604397294899</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.76649838902131</v>
+        <v>3.466495118199609</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.199075740989285</v>
+        <v>7.705682334832822</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.915794883827164</v>
+        <v>2.876708656219282</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.284037401164893</v>
+        <v>3.661120763705726</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.029260101522548</v>
+        <v>8.525960226081057</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.369696857125896</v>
+        <v>5.191419870598946</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.595684153798159</v>
+        <v>2.708641430936482</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.583308893609872</v>
+        <v>6.403553857630824</v>
       </c>
     </row>
     <row r="19">
@@ -1165,7 +1165,7 @@
         <v>0.1021616800234046</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.756779942665885</v>
+        <v>0.7567799426658848</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.3009838496346674</v>
@@ -1194,27 +1194,27 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.04736555167556309</v>
+        <v>0.05963388183504236</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4738821675038868</v>
+        <v>-0.4994385702790674</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1269366954149656</v>
+        <v>-0.1310196805638608</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.5317232030435963</v>
+        <v>-0.4810475610428188</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.008997978039352554</v>
+        <v>-0.06503609430836316</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4099412555798896</v>
+        <v>-0.4141022995340824</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.01236599183112902</v>
+        <v>-0.01576492380408321</v>
       </c>
     </row>
     <row r="21">
@@ -1225,25 +1225,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.553243990412978</v>
+        <v>2.55090979548584</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.352772434268518</v>
+        <v>1.228164883713949</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.455898220707328</v>
+        <v>2.811118567846836</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>2.348157300835541</v>
+        <v>2.10749189552049</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.12093415485076</v>
+        <v>1.113266774018749</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.607802138345676</v>
+        <v>2.669088141628982</v>
       </c>
     </row>
     <row r="22">
@@ -1273,7 +1273,7 @@
         <v>1.813003713385601</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.104835549727667</v>
+        <v>-1.104835549727668</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.691292657602345</v>
@@ -1293,31 +1293,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.592589348382576</v>
+        <v>2.0294744225324</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.280207600821402</v>
+        <v>1.323677296528924</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.240366679232421</v>
+        <v>3.506963748767058</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.021952776230703</v>
+        <v>-3.265389266177599</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.345587907752385</v>
+        <v>-0.9975436044758683</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.084647615276841</v>
+        <v>-3.944140377189328</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7991789593037202</v>
+        <v>0.6813181821776333</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9899615010801512</v>
+        <v>0.9283126471882792</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.226280317481902</v>
+        <v>1.227708415241923</v>
       </c>
     </row>
     <row r="24">
@@ -1328,31 +1328,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.464939392339261</v>
+        <v>7.348302076030387</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.346067106466434</v>
+        <v>6.356966606810708</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.18635049312129</v>
+        <v>9.833230018958613</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.484734712089241</v>
+        <v>2.757155247594953</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.63432301505827</v>
+        <v>4.842239418731944</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.522562508571127</v>
+        <v>1.43212325524866</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.748893953796011</v>
+        <v>4.670830974380737</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.98027491919932</v>
+        <v>4.805669471482457</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.93583275991095</v>
+        <v>6.032411013192215</v>
       </c>
     </row>
     <row r="25">
@@ -1378,7 +1378,7 @@
         <v>0.6027773656218297</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.3673295631957409</v>
+        <v>-0.3673295631957411</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.8964430396840943</v>
@@ -1398,31 +1398,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3236679977827789</v>
+        <v>0.3753003852139906</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2808420444073459</v>
+        <v>0.2249024537906865</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7175572469301668</v>
+        <v>0.8069833400830112</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.672257062583742</v>
+        <v>-0.7157525383662009</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.360019113681704</v>
+        <v>-0.2985554078830913</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.8239647894135526</v>
+        <v>-0.8311546824374089</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.179372246688516</v>
+        <v>0.1461526594611196</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1926385382065484</v>
+        <v>0.196101406579112</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2820362139790903</v>
+        <v>0.2930482739389977</v>
       </c>
     </row>
     <row r="27">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.65063231372089</v>
+        <v>3.494701194976373</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.212309591937637</v>
+        <v>3.082500032890807</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5.116227733793944</v>
+        <v>4.991557025267201</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.652639349076613</v>
+        <v>2.080044176954031</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.824436370640123</v>
+        <v>3.160920158014593</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.584160500618596</v>
+        <v>1.239375191464957</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>2.26312999105218</v>
+        <v>2.027121616402112</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.198190436444754</v>
+        <v>2.181773117954007</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.773944829143435</v>
+        <v>2.711904946859588</v>
       </c>
     </row>
     <row r="28">
@@ -1478,7 +1478,7 @@
         <v>2.52043035817257</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.759696653775256</v>
+        <v>3.759696653775255</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.6809121877644861</v>
@@ -1496,7 +1496,7 @@
         <v>2.195706899642088</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>3.097231925436511</v>
+        <v>3.09723192543651</v>
       </c>
     </row>
     <row r="29">
@@ -1507,31 +1507,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.6821612893938</v>
+        <v>2.589997370424974</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.273079055273578</v>
+        <v>1.263445923167827</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.271398516380783</v>
+        <v>2.261047235800225</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.6316875585981321</v>
+        <v>-0.5690562346720659</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5302991641437997</v>
+        <v>0.4393413770461828</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.5642143604547321</v>
+        <v>0.6454792471641312</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.763644076273358</v>
+        <v>1.876836719718304</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.232789175214244</v>
+        <v>1.251650828604843</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.0752001594303</v>
+        <v>1.890466992467622</v>
       </c>
     </row>
     <row r="30">
@@ -1542,31 +1542,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.321486031262173</v>
+        <v>5.405998967433164</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.785104801672497</v>
+        <v>3.78920555029956</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.279019198721421</v>
+        <v>5.28866711107375</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.003190431916776</v>
+        <v>1.929388322785774</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.238730074169697</v>
+        <v>3.09976532664202</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.749417118555415</v>
+        <v>3.660055443802205</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.928283742220922</v>
+        <v>3.947094868119743</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.189142802040658</v>
+        <v>3.169216642900173</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.426000084545295</v>
+        <v>4.189236060423481</v>
       </c>
     </row>
     <row r="31">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.7941891430546627</v>
+        <v>0.7523059652989577</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.3804279879982054</v>
+        <v>0.3673379157051917</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.672216618467118</v>
+        <v>0.6960883045244998</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3070694517829721</v>
+        <v>-0.2944288354083832</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1520414735143491</v>
+        <v>0.1748537852191651</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1625792519752853</v>
+        <v>0.2296775350666087</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6379743142785517</v>
+        <v>0.6736906767390292</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.4159190157807411</v>
+        <v>0.4279272721432132</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.7425357832120286</v>
+        <v>0.6737622957935602</v>
       </c>
     </row>
     <row r="33">
@@ -1647,31 +1647,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.371251764265455</v>
+        <v>2.36026971263729</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.745354962766841</v>
+        <v>1.674675813464951</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.267758282787707</v>
+        <v>2.4765188256176</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.322840084691677</v>
+        <v>2.158859278961776</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>3.618796770727195</v>
+        <v>3.387969233832544</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>4.132485325089032</v>
+        <v>3.837521950634414</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.998778598307734</v>
+        <v>2.0304991237468</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.652481370295045</v>
+        <v>1.616505779831636</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.282360830242046</v>
+        <v>2.137625907217459</v>
       </c>
     </row>
     <row r="34">
